--- a/Data/qly/湖北省中医院/湖北省中医院高校医联体搜索结果.xlsx
+++ b/Data/qly/湖北省中医院/湖北省中医院高校医联体搜索结果.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>技术</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.hbhtcm.com/view/6314.html</t>
+          <t>https://www.hbhtcm.com/view/6875.html</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.hbhtcm.com/view/6875.html</t>
+          <t>https://www.hbhtcm.com/view/6314.html</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>技术</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>技术</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023-04-30</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.hbhtcm.com/view/6758.html</t>
+          <t>https://www.hbhtcm.com/view/6644.html</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-04-30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>技术</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.hbhtcm.com/view/6644.html</t>
+          <t>https://www.hbhtcm.com/view/6758.html</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.hbhtcm.com/view/6257.html</t>
+          <t>https://www.hbhtcm.com/view/6239.html</t>
         </is>
       </c>
     </row>
